--- a/old_image/requestgroup.xlsx
+++ b/old_image/requestgroup.xlsx
@@ -455,7 +455,7 @@
     <t>RequestGroup.status</t>
   </si>
   <si>
-    <t>draft | active | suspended | cancelled | completed | entered-in-error | unknown</t>
+    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
   </si>
   <si>
     <t>The current state of the request. For request groups, the status reflects the status of all the requests in the group.</t>
@@ -483,7 +483,7 @@
 </t>
   </si>
   <si>
-    <t>proposal | plan | order</t>
+    <t>proposal | plan | directive | order | original-order | reflex-order | filler-order | instance-order | option</t>
   </si>
   <si>
     <t>Indicates the level of authority/intentionality associated with the request and where the request fits into the workflow chain.</t>
